--- a/Worktopia_cod/src/main/resources/Docs/Factura_5.xlsx
+++ b/Worktopia_cod/src/main/resources/Docs/Factura_5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d875aac683fd181d/Estudios DAM/DAM2do/Diseño de Interfaces/Worktopia/Worktopia_cod/src/main/resources/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="121" documentId="11_AD4D2F04E46CFB4ACB3E20F6FD57C390693EDF10" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F63C5CC1-6242-40C5-8435-B41924725FCC}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="11_AD4D2F04E46CFB4ACB3E20F6FD57C390693EDF10" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34162D54-707F-45E2-9B19-6003234720D6}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37230" yWindow="1170" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -66,9 +66,6 @@
     <t>Nombre Cliente:</t>
   </si>
   <si>
-    <t>Fecha de pago:</t>
-  </si>
-  <si>
     <t>Base:</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>Email:</t>
+  </si>
+  <si>
+    <t>Fecha de emisión:</t>
   </si>
   <si>
     <t>5</t>
@@ -561,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A10:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,7 +618,7 @@
       <c r="A15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F15" t="s" s="0">
         <v>22</v>
@@ -908,7 +908,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G44" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H44" s="6" t="n">
         <v>226.1682</v>
@@ -924,7 +924,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F46" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G46" s="8" t="n">
         <v>0.0</v>
@@ -943,7 +943,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G48" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H48" t="s" s="0">
         <v>19</v>
